--- a/results/statistical_results.xlsx
+++ b/results/statistical_results.xlsx
@@ -389,7 +389,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.158304058935735</v>
+        <v>0.108153212034755</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277178150078288</v>
+        <v>0.509750831151015</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0584477295358225</v>
+        <v>0.0689144580741064</v>
       </c>
     </row>
     <row r="5">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.300982740019382</v>
+        <v>0.645128913827914</v>
       </c>
     </row>
     <row r="6">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229359490433361</v>
+        <v>0.0396571746532575</v>
       </c>
     </row>
     <row r="7">
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00510068005253083</v>
+        <v>0.000281885080825878</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00315319662360862</v>
+        <v>0.00270193003231314</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.913803851027282</v>
+        <v>0.151910705377941</v>
       </c>
     </row>
     <row r="10">
